--- a/doc/refs/初始化数据/device.xlsx
+++ b/doc/refs/初始化数据/device.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pdsys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\pdsys\doc\refs\初始化数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="设备管理" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="354">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备件数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,18 +387,311 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ZC-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6203轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯内油污</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CITO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯底油污</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯内打皱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯底打皱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月牙底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱业不粘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯底不粘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯底破洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+  </si>
+  <si>
+    <t>条</t>
+  </si>
+  <si>
+    <t>ZC-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲切机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿轮油</t>
+  </si>
+  <si>
+    <t>铜石墨轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC-01</t>
+  </si>
+  <si>
+    <t>6201轴承</t>
+  </si>
+  <si>
+    <t>升</t>
+  </si>
+  <si>
+    <t>升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145ML-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿轮油（美孚600 XP 220)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15KW空压机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75kw空压机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#楼南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP-LM1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平压平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8#楼1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C950-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CQJ-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CQJ-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C950-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CQJ-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C950-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKL15KW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKL75KW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAY-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAY-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液压油42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某设备制造商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张建锋</t>
+  </si>
+  <si>
+    <t>2018/6/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EH-41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>41L加热器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EH-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>21L加热器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>XF0994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EH-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20L加热器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>XF0994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>JRX-41</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,6 +700,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>JRX-21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,6 +712,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>XF0335</t>
+  </si>
+  <si>
     <t>JRX-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,6 +723,297 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>XF-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMPC-24V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V开关电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧姆龙温控仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XF1032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABB-220V交流接触器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散热风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XF1032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜗轮散热扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固体继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VR-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20K振子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VR-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15K振子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50鼓风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400鼓风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL-1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500鼓风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL-2200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200鼓风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40MM过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOX-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20K电箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOX-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15K电箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热点偶-AT20/K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色标-Z3S/T22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP-LM1000</t>
+  </si>
+  <si>
+    <t>CF-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸纸电磁阀（VX213FAXMB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收杯电磁阀（51250-5GD-01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD-441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下CX-441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD-442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下CX-442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD-491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下CX-491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC-1S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ2S-CL-D24 24V8爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC-2S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ1S-CL-D24 24V8爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYLG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱业连杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGSX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连杆上销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连杆下销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推纸器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸片大拉钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸片小拉钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XF1043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF12-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3203轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6201轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ZC-03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,361 +1022,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZC-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6201轴承</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMPC-24V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24V开关电源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杯内油污</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CITO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杯底油污</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杯内打皱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICTC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杯底打皱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月牙底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBTC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抱业不粘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杯底不粘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杯底破洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBHB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧姆龙温控仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散热风扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜗轮散热扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固体继电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20K振子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50鼓风机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BL-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BL-400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BL-1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BL-2200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400鼓风机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500鼓风机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2200鼓风机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EH-41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EH-21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EH-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40MM过滤器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20K电箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOX-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VR-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VR-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15K振子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOX-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15K电箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间继电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中速机</t>
-  </si>
-  <si>
-    <t>个</t>
-  </si>
-  <si>
-    <t>GD-441</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GD-442</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GD-491</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>松下CX-441</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>松下CX-442</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>松下CX-491</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABB-220V交流接触器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC-1S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC-2S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RJ2S-CL-D24 24V8爪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RJ1S-CL-D24 24V8爪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抱业连杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BYLG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGSX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连杆上销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连杆下销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TZQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推纸器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DLG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸片大拉钩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸片小拉钩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF12-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3203轴承</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZC-02</t>
+    <t>GLD205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150*180mm-205ml高杯型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -797,11 +1042,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GLD205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>块</t>
+    <t>150*135mm-205ml杯型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -809,14 +1050,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>150*180mm-205ml高杯型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>180*135mm-400ml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>XF1645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LD100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,7 +1066,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>150*135mm-205ml杯型</t>
+    <t>GT-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -833,14 +1074,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>XF0333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GT-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GT-02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -849,6 +1090,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>XF0445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GT-03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -857,10 +1102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>快速机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GT-04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -873,6 +1114,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>50mm钢套275ml发泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XF0617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GT-06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,6 +1130,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>XF-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,269 +1170,226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CN501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPT-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN501-Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洗液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPT-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100mm底纸冲刀（205ml）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72.5mm底纸冲刀(100ml)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRB-2油泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP-LM1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:10窝底快速机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:20窝底快速机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37000电动机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12关节轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换向阀VM2202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜石墨轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">B1397皮带 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S16-161123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A1041皮带  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S16-161123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      A813皮带        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A900三角带</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PD-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT62皮带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1829皮带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C950-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1448皮带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1295皮带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CN501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷码机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN501-Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溶剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清洗液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条</t>
-  </si>
-  <si>
-    <t>条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中速机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100mm底纸冲刀（205ml）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>72.5mm底纸冲刀(100ml)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRB-2油泵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模切机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GM-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GM-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37000电动机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热点偶-AT20/K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色标-Z3S/T22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸纸电磁阀（VX213FAXMB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZC-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12关节轴承</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换向阀VM2202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZC-05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜石墨轴承</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:10窝底快速机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:20窝底快速机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收杯电磁阀（51250-5GD-01)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50mm钢套275ml发泡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KT-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KT-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超声波电箱MY2N-GS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低速机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">B1397皮带 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">A1041皮带  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      A813皮带        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT62皮带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲切机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1829皮带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1448皮带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1295皮带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PD-9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1188,11 +1398,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PD-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1118皮带</t>
+    <t>SP-LM1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1204,10 +1410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PD-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1220,162 +1422,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A1473Li76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲切机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齿轮油</t>
-  </si>
-  <si>
-    <t>铜石墨轴承</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZC-01</t>
-  </si>
-  <si>
-    <t>6201轴承</t>
-  </si>
-  <si>
-    <t>升</t>
-  </si>
-  <si>
-    <t>升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>145ML-22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齿轮油（美孚600 XP 220)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15KW空压机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1#仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75kw空压机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3#楼南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MQJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP-LM1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平压平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8#楼1F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C950-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CQJ-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CQJ-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C950-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CQJ-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C950-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKL15KW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKL75KW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YAY-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YAY-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>液压油42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某设备制造商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张建锋</t>
-  </si>
-  <si>
-    <t>2018/6/30</t>
+    <t>A1473Li76皮带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗备件数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本页是必备的备件，关联到机器，但是使用量都为0，与保养耗材区分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1796,9 +1851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1825,10 +1880,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>334</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1848,7 +1903,7 @@
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>20</v>
@@ -1857,10 +1912,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
@@ -1869,18 +1924,18 @@
         <v>30</v>
       </c>
       <c r="H2" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>21</v>
@@ -1889,10 +1944,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
@@ -1901,18 +1956,18 @@
         <v>30</v>
       </c>
       <c r="H3" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
@@ -1921,10 +1976,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
@@ -1933,30 +1988,30 @@
         <v>30</v>
       </c>
       <c r="H4" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>7</v>
@@ -1965,18 +2020,18 @@
         <v>30</v>
       </c>
       <c r="H5" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -1985,10 +2040,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>7</v>
@@ -1997,18 +2052,18 @@
         <v>30</v>
       </c>
       <c r="H6" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
@@ -2017,10 +2072,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>7</v>
@@ -2029,18 +2084,18 @@
         <v>30</v>
       </c>
       <c r="H7" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
@@ -2049,10 +2104,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>7</v>
@@ -2061,18 +2116,18 @@
         <v>30</v>
       </c>
       <c r="H8" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>26</v>
@@ -2081,10 +2136,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>7</v>
@@ -2093,18 +2148,18 @@
         <v>30</v>
       </c>
       <c r="H9" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
@@ -2113,10 +2168,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>7</v>
@@ -2125,18 +2180,18 @@
         <v>30</v>
       </c>
       <c r="H10" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>28</v>
@@ -2145,10 +2200,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
@@ -2157,18 +2212,18 @@
         <v>30</v>
       </c>
       <c r="H11" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>29</v>
@@ -2177,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>7</v>
@@ -2189,18 +2244,18 @@
         <v>30</v>
       </c>
       <c r="H12" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>30</v>
@@ -2209,10 +2264,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>7</v>
@@ -2221,18 +2276,18 @@
         <v>30</v>
       </c>
       <c r="H13" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>35</v>
@@ -2241,10 +2296,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>7</v>
@@ -2253,18 +2308,18 @@
         <v>30</v>
       </c>
       <c r="H14" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>35</v>
@@ -2273,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>7</v>
@@ -2285,18 +2340,18 @@
         <v>30</v>
       </c>
       <c r="H15" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>36</v>
@@ -2305,10 +2360,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>7</v>
@@ -2317,18 +2372,18 @@
         <v>30</v>
       </c>
       <c r="H16" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -2337,10 +2392,10 @@
         <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>7</v>
@@ -2349,18 +2404,18 @@
         <v>30</v>
       </c>
       <c r="H17" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>39</v>
@@ -2369,10 +2424,10 @@
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>7</v>
@@ -2381,30 +2436,30 @@
         <v>30</v>
       </c>
       <c r="H18" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>7</v>
@@ -2413,18 +2468,18 @@
         <v>30</v>
       </c>
       <c r="H19" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>37</v>
@@ -2433,10 +2488,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>13</v>
@@ -2445,18 +2500,18 @@
         <v>30</v>
       </c>
       <c r="H20" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>34</v>
@@ -2465,10 +2520,10 @@
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>13</v>
@@ -2477,18 +2532,18 @@
         <v>30</v>
       </c>
       <c r="H21" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>33</v>
@@ -2497,10 +2552,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>13</v>
@@ -2509,18 +2564,18 @@
         <v>30</v>
       </c>
       <c r="H22" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>308</v>
+        <v>126</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>32</v>
@@ -2529,10 +2584,10 @@
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>13</v>
@@ -2541,18 +2596,18 @@
         <v>30</v>
       </c>
       <c r="H23" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>40</v>
@@ -2561,10 +2616,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>13</v>
@@ -2573,18 +2628,18 @@
         <v>30</v>
       </c>
       <c r="H24" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>31</v>
@@ -2593,10 +2648,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>13</v>
@@ -2605,206 +2660,206 @@
         <v>30</v>
       </c>
       <c r="H25" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>320</v>
+        <v>138</v>
       </c>
       <c r="G26" s="3">
         <v>30</v>
       </c>
       <c r="H26" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>321</v>
+        <v>139</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>320</v>
+        <v>138</v>
       </c>
       <c r="G27" s="3">
         <v>30</v>
       </c>
       <c r="H27" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>323</v>
+        <v>141</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>324</v>
+        <v>142</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>320</v>
+        <v>138</v>
       </c>
       <c r="G28" s="3">
         <v>30</v>
       </c>
       <c r="H28" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>325</v>
+        <v>143</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>326</v>
+        <v>144</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>320</v>
+        <v>138</v>
       </c>
       <c r="G29" s="3">
         <v>30</v>
       </c>
       <c r="H29" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>327</v>
+        <v>145</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>329</v>
+        <v>147</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>313</v>
+        <v>131</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="G30" s="3">
         <v>125</v>
       </c>
       <c r="H30" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>328</v>
+        <v>146</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>315</v>
+        <v>133</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>316</v>
+        <v>134</v>
       </c>
       <c r="G31" s="3">
         <v>125</v>
       </c>
       <c r="H31" s="5" t="s" ph="1">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2830,9 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2856,13 +2909,13 @@
         <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2870,19 +2923,19 @@
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3">
         <v>0.3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2890,19 +2943,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3">
         <v>0.5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2910,19 +2963,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D4" s="3">
         <v>0.1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2930,19 +2983,19 @@
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>259</v>
+        <v>117</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="D5" s="3">
         <v>0.1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>303</v>
+        <v>121</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2950,19 +3003,19 @@
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="D6" s="3">
         <v>0.5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>303</v>
+        <v>121</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2970,19 +3023,19 @@
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>331</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="3">
         <v>0.9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>307</v>
+        <v>125</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2990,19 +3043,19 @@
         <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>311</v>
+        <v>129</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="D8" s="3">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>307</v>
+        <v>125</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3010,19 +3063,19 @@
         <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3">
         <v>0.3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3030,19 +3083,19 @@
         <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3">
         <v>0.3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3050,19 +3103,19 @@
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="D11" s="3">
         <v>0.5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>303</v>
+        <v>121</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3070,99 +3123,99 @@
         <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>312</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>301</v>
+        <v>119</v>
       </c>
       <c r="D12" s="3">
         <v>0.2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>306</v>
+        <v>124</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3">
         <v>0.1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>332</v>
+        <v>150</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>333</v>
+        <v>151</v>
       </c>
       <c r="D14" s="3">
         <v>0.9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>307</v>
+        <v>125</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>321</v>
+        <v>139</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3">
         <v>0.3</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>321</v>
+        <v>139</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="3">
         <v>0.1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3273,7 +3326,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3283,130 +3336,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3417,11 +3470,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3435,38 +3488,38 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -3474,19 +3527,22 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -3495,18 +3551,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -3515,18 +3571,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -3535,18 +3591,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -3555,18 +3611,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -3575,18 +3631,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -3595,18 +3651,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -3615,18 +3671,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
@@ -3635,18 +3691,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -3655,18 +3711,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -3675,18 +3731,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -3695,18 +3751,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
@@ -3715,18 +3771,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -3735,18 +3791,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -3755,18 +3811,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -3775,18 +3831,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -3795,18 +3851,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -3815,18 +3871,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -3835,18 +3891,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -3855,18 +3911,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -3875,18 +3931,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -3895,18 +3951,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -3915,18 +3971,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -3935,18 +3991,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -3955,18 +4011,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -3975,32 +4031,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -4009,18 +4071,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -4029,18 +4091,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -4049,138 +4111,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
       </c>
       <c r="F32" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
       </c>
       <c r="F33" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
       </c>
       <c r="F37" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -4189,38 +4251,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -4229,96 +4291,98 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="3">
         <v>2</v>
       </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
       <c r="F42" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="E43" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>101</v>
+        <v>253</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>48</v>
+        <v>254</v>
       </c>
       <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -4327,38 +4391,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
         <v>2</v>
       </c>
-      <c r="F46" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
@@ -4367,78 +4431,78 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="E48" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="E49" s="3">
         <v>3</v>
       </c>
       <c r="F49" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E50" s="3">
         <v>3</v>
       </c>
       <c r="F50" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E51" s="3">
         <v>3</v>
@@ -4447,647 +4511,623 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>8</v>
+        <v>275</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E52" s="3">
         <v>3</v>
       </c>
       <c r="F52" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>8</v>
+        <v>278</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E53" s="3">
         <v>3</v>
       </c>
       <c r="F53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E56" s="3">
+        <v>5</v>
+      </c>
+      <c r="F56" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" s="3">
-        <v>4</v>
-      </c>
-      <c r="F55" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E56" s="3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
         <v>2</v>
       </c>
-      <c r="F56" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E57" s="3">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E59" s="3">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
         <v>2</v>
       </c>
-      <c r="F59" s="3">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2</v>
-      </c>
-      <c r="F62" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C65" s="3">
-        <v>54</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
       <c r="F68" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c r="E69" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>235</v>
+        <v>322</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
       <c r="E70" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F70" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1</v>
-      </c>
-      <c r="F71" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>271</v>
+        <v>332</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="E73" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>223</v>
+        <v>334</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="E74" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>284</v>
+        <v>116</v>
       </c>
       <c r="E75" s="3">
         <v>3</v>
       </c>
       <c r="F75" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="E76" s="3">
         <v>3</v>
       </c>
       <c r="F76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E78" s="3">
+        <v>4</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E77" s="3">
-        <v>3</v>
-      </c>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E78" s="3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
         <v>2</v>
       </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E79" s="3">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2</v>
+      </c>
+      <c r="F81" s="3">
         <v>4</v>
       </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E80" s="3">
-        <v>1</v>
-      </c>
-      <c r="F80" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1</v>
-      </c>
-      <c r="F81" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E82" s="3">
-        <v>1</v>
-      </c>
-      <c r="F82" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5095,7 +5135,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -5103,7 +5143,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5111,7 +5151,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -5119,7 +5159,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -5127,7 +5167,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5135,7 +5175,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -5143,7 +5183,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
